--- a/excelTemplate/LoadingTemplateCustoms.xlsx
+++ b/excelTemplate/LoadingTemplateCustoms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MasterBl" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>#M B/L No</t>
   </si>
@@ -144,160 +144,175 @@
     <t>&lt;%forRow rs1,i in _data_[0]%&gt;&lt;%=rs1.billlading_no%&gt;</t>
   </si>
   <si>
+    <t>&lt;%="EX"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%="S"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.discharge_port_country%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_delivery_place%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.discharge_port_name%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.loading_port_name%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_goods_container_number%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_goods_description%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_goods_package_number%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_goods_package_unit%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_goods_gross_weight%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_goods_gross_unit%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_goods_gross_volume%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_goods_gross_volume_unit%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_goods_net_weight%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_goods_net_unit%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%="C"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_exporter_name%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_consignee_name%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_consignee_tel%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_consignee_address%&gt;</t>
+  </si>
+  <si>
+    <t>*Type Of Container</t>
+  </si>
+  <si>
+    <t>*Container No</t>
+  </si>
+  <si>
+    <t>*Container Size</t>
+  </si>
+  <si>
+    <t>*Seal No.1</t>
+  </si>
+  <si>
+    <t>Seal No.2</t>
+  </si>
+  <si>
+    <t>Seal No.3/Out Of Gague</t>
+  </si>
+  <si>
+    <t>Freight Indicator</t>
+  </si>
+  <si>
+    <t>No Of Package</t>
+  </si>
+  <si>
+    <t>Package Unit</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Volume Unit</t>
+  </si>
+  <si>
+    <t>*Weight</t>
+  </si>
+  <si>
+    <t>*Weight Unit</t>
+  </si>
+  <si>
+    <t>Minmum Temperature</t>
+  </si>
+  <si>
+    <t>Maxmum Temperature</t>
+  </si>
+  <si>
+    <t>*Refer Plug Y/N</t>
+  </si>
+  <si>
+    <t>&lt;%forRow rs1,i in _data_[1]%&gt;&lt;%=rs1.billlading_no%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.container_no%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.container_freight_indicator%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.container_package_no%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.container_volume%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.container_volume_unit%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.container_weight%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.container_weight_unit%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.container_minmum_temperature%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.container_maxmum_temperature%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.container_refer_plug%&gt;</t>
+  </si>
+  <si>
+    <t>H B/L No</t>
+  </si>
+  <si>
+    <t>*Type Of Reference</t>
+  </si>
+  <si>
+    <t>*Reference No</t>
+  </si>
+  <si>
+    <t>*No Of Package</t>
+  </si>
+  <si>
+    <t>SIMPLE</t>
+  </si>
+  <si>
     <t>EX</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.billlading_delivery_place%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.discharge_port_name%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.loading_port_name%&gt;</t>
+    <t>TZDL-18-1247952</t>
+  </si>
+  <si>
+    <t>BALES</t>
   </si>
   <si>
     <t>KG</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>S&amp;C GINNING CO. LTD</t>
-  </si>
-  <si>
-    <t>CDI COTTON DISTRIBUTORS INL</t>
-  </si>
-  <si>
-    <t>P.O.BOX 111</t>
-  </si>
-  <si>
-    <t>*Type Of Container</t>
-  </si>
-  <si>
-    <t>*Container No</t>
-  </si>
-  <si>
-    <t>*Container Size</t>
-  </si>
-  <si>
-    <t>*Seal No.1</t>
-  </si>
-  <si>
-    <t>Seal No.2</t>
-  </si>
-  <si>
-    <t>Seal No.3/Out Of Gague</t>
-  </si>
-  <si>
-    <t>Freight Indicator</t>
-  </si>
-  <si>
-    <t>No Of Package</t>
-  </si>
-  <si>
-    <t>Package Unit</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Volume Unit</t>
-  </si>
-  <si>
-    <t>*Weight</t>
-  </si>
-  <si>
-    <t>*Weight Unit</t>
-  </si>
-  <si>
-    <t>Minmum Temperature</t>
-  </si>
-  <si>
-    <t>Maxmum Temperature</t>
-  </si>
-  <si>
-    <t>*Refer Plug Y/N</t>
-  </si>
-  <si>
-    <t>CCLU7786470</t>
-  </si>
-  <si>
-    <t>45G1</t>
-  </si>
-  <si>
-    <t>FCL</t>
-  </si>
-  <si>
-    <t>BALES</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>TCNU6467451</t>
-  </si>
-  <si>
-    <t>FSCU8947427</t>
-  </si>
-  <si>
-    <t>TCNU7795054</t>
-  </si>
-  <si>
-    <t>FSCU8949564</t>
-  </si>
-  <si>
-    <t>CBHU8925821</t>
-  </si>
-  <si>
-    <t>CBHU9197567</t>
-  </si>
-  <si>
-    <t>TGBU5375849</t>
-  </si>
-  <si>
-    <t>UETU5395902</t>
-  </si>
-  <si>
-    <t>FCIU9548485</t>
-  </si>
-  <si>
-    <t>CCLU7094066</t>
-  </si>
-  <si>
-    <t>DFSU6175210</t>
-  </si>
-  <si>
-    <t>CBHU9486641</t>
-  </si>
-  <si>
-    <t>TGBU5050503</t>
-  </si>
-  <si>
-    <t>TCNU2285280</t>
-  </si>
-  <si>
-    <t>DFSU7344866</t>
-  </si>
-  <si>
-    <t>H B/L No</t>
-  </si>
-  <si>
-    <t>*Type Of Reference</t>
-  </si>
-  <si>
-    <t>*Reference No</t>
-  </si>
-  <si>
-    <t>*No Of Package</t>
-  </si>
-  <si>
-    <t>SIMPLE</t>
-  </si>
-  <si>
-    <t>TZDL-18-1247952</t>
   </si>
 </sst>
 </file>
@@ -305,13 +320,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -347,7 +362,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,29 +452,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -392,45 +460,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,14 +474,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,31 +482,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,31 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,127 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,6 +553,150 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -703,22 +711,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,6 +741,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -753,17 +770,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,170 +790,167 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,7 +972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -974,7 +982,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2734,7 +2741,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2747,7 +2754,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="333375"/>
+          <a:ext cx="12556490" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2760,6 +2767,880 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
@@ -2780,7 +3661,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 18"/>
+        <xdr:cNvPr id="21" name="AutoShape 18"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2826,7 +3707,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 18"/>
+        <xdr:cNvPr id="22" name="AutoShape 18"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2841,7 +3722,7 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -2872,7 +3753,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 18"/>
+        <xdr:cNvPr id="23" name="AutoShape 18"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2887,7 +3768,7 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -2918,7 +3799,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 18"/>
+        <xdr:cNvPr id="24" name="AutoShape 18"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2964,7 +3845,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 18"/>
+        <xdr:cNvPr id="25" name="AutoShape 18"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2979,7 +3860,7 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -3005,20 +3886,20 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="333375"/>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="2047875"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3051,27 +3932,27 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="333375"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="2047875"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -3097,27 +3978,27 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="333375"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="2047875"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -3143,20 +4024,20 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="333375"/>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="3762375"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3189,27 +4070,27 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="333375"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="3762375"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -3235,20 +4116,20 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="333375"/>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12556490" cy="3933825"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3281,881 +4162,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="333375"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="333375"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="333375"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="333375"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="333375"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="333375"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="333375"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="333375"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="1190625"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="2905125"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="2905125"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="2905125"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="2905125"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="4276725"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="4276725"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="4276725"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="5991225"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="5991225"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="AutoShape 18"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="6162675"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4168,7 +4175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="6162675"/>
+          <a:ext cx="12556490" cy="3933825"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4201,7 +4208,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4214,7 +4221,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11045190" cy="6162675"/>
+          <a:ext cx="11045190" cy="3933825"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4247,7 +4254,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4260,7 +4267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11045190" cy="6162675"/>
+          <a:ext cx="11045190" cy="3933825"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4293,7 +4300,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4306,7 +4313,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12232640" cy="9846945"/>
+          <a:ext cx="12232640" cy="7618095"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4339,7 +4346,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4352,7 +4359,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12232640" cy="9846945"/>
+          <a:ext cx="12232640" cy="7618095"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6294,8 +6301,8 @@
   <sheetPr/>
   <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -6317,10 +6324,10 @@
     <col min="15" max="15" width="19.7083333333333" customWidth="1"/>
     <col min="16" max="16" width="12.2833333333333" customWidth="1"/>
     <col min="17" max="17" width="16.7083333333333" customWidth="1"/>
-    <col min="18" max="18" width="15.1416666666667" style="18" customWidth="1"/>
-    <col min="19" max="19" width="17.7083333333333" style="18" customWidth="1"/>
-    <col min="20" max="20" width="16" style="18" customWidth="1"/>
-    <col min="21" max="21" width="17.7083333333333" style="18" customWidth="1"/>
+    <col min="18" max="18" width="15.1416666666667" style="17" customWidth="1"/>
+    <col min="19" max="19" width="17.7083333333333" style="17" customWidth="1"/>
+    <col min="20" max="20" width="16" style="17" customWidth="1"/>
+    <col min="21" max="21" width="17.7083333333333" style="17" customWidth="1"/>
     <col min="22" max="22" width="12.2833333333333" customWidth="1"/>
     <col min="23" max="23" width="15.2833333333333" customWidth="1"/>
     <col min="24" max="24" width="10" customWidth="1"/>
@@ -6394,16 +6401,16 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
@@ -6481,66 +6488,74 @@
         <v>44</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="7">
-        <v>407427</v>
+        <v>53</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
       <c r="W2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="22"/>
+        <v>58</v>
+      </c>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="21"/>
       <c r="AC2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="AD2" s="21"/>
       <c r="AE2" s="12"/>
-      <c r="AF2" s="22"/>
+      <c r="AF2" s="21"/>
       <c r="AG2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ2" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="AH2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" s="20"/>
       <c r="AK2" s="12"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="25"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6553,13 +6568,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="25.7083333333333" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -6585,608 +6600,103 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="40.5" spans="1:17">
+      <c r="A2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>67</v>
+      <c r="C2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:17">
-      <c r="A2" s="8">
-        <v>6163887840</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="11">
-        <v>8975111</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="14">
-        <v>125</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="15">
-        <v>25866</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:17">
-      <c r="A3" s="8">
-        <v>6163887840</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="11">
-        <v>8975112</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="14">
-        <v>125</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="15">
-        <v>25866</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:17">
-      <c r="A4" s="8">
-        <v>6163887840</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="11">
-        <v>8975113</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="14">
-        <v>125</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" s="15">
-        <v>25866</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:17">
-      <c r="A5" s="8">
-        <v>6163887840</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="11">
-        <v>8975114</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="14">
-        <v>125</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="15">
-        <v>25866</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:17">
-      <c r="A6" s="8">
-        <v>6163887840</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="11">
-        <v>8975115</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="14">
-        <v>125</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="15">
-        <v>25866</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:17">
-      <c r="A7" s="8">
-        <v>6163887840</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="11">
-        <v>8975116</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="14">
-        <v>125</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="15">
-        <v>25866</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="17"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:17">
-      <c r="A8" s="8">
-        <v>6163887840</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="11">
-        <v>8975117</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="14">
-        <v>125</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="15">
-        <v>25866</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="17"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:17">
-      <c r="A9" s="8">
-        <v>6163887840</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="11">
-        <v>8975118</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="14">
-        <v>125</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" s="15">
-        <v>25866</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="17"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:17">
-      <c r="A10" s="8">
-        <v>6163887840</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="11">
-        <v>8975119</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="14">
-        <v>125</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" s="15">
-        <v>25866</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="17"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:17">
-      <c r="A11" s="8">
-        <v>6163887840</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="11">
-        <v>8975120</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="14">
-        <v>125</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="15">
-        <v>25866</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:17">
-      <c r="A12" s="8">
-        <v>6163887840</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="11">
-        <v>8975171</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="14">
-        <v>125</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="15">
-        <v>25866</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:17">
-      <c r="A13" s="8">
-        <v>6163887840</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="11">
-        <v>8975172</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="14">
-        <v>125</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="15">
-        <v>25866</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:17">
-      <c r="A14" s="8">
-        <v>6163887840</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="11">
-        <v>8975173</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="14">
-        <v>125</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="15">
-        <v>25866</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:17">
-      <c r="A15" s="8">
-        <v>6163887840</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="11">
-        <v>8975174</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="14">
-        <v>125</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="15">
-        <v>25866</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:17">
-      <c r="A16" s="8">
-        <v>6163887840</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="11">
-        <v>8975175</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="14">
-        <v>125</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M16" s="15">
-        <v>25866</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="8">
-        <v>6163887840</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="11">
-        <v>8975176</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="14">
-        <v>125</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="15">
-        <v>22010</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="13:13">
-      <c r="M18" s="16"/>
+    <row r="3" spans="13:13">
+      <c r="M3" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7201,8 +6711,8 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -7222,25 +6732,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:8">
@@ -7248,25 +6758,25 @@
         <v>6163887840</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E2" s="5">
         <v>2000</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G2" s="7">
         <v>410000</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/excelTemplate/LoadingTemplateCustoms.xlsx
+++ b/excelTemplate/LoadingTemplateCustoms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="MasterBl" sheetId="1" r:id="rId1"/>
@@ -320,13 +320,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -348,9 +348,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,15 +423,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,98 +448,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,9 +469,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,25 +507,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,67 +537,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,37 +579,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,13 +615,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,7 +639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,6 +652,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,46 +705,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,19 +728,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,16 +772,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -822,14 +816,14 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -838,119 +832,119 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -991,26 +985,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1783,7 +1759,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="3605530"/>
+          <a:ext cx="11245215" cy="3448050"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1829,7 +1805,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="3605530"/>
+          <a:ext cx="11245215" cy="3448050"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1875,7 +1851,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="3605530"/>
+          <a:ext cx="11245215" cy="3448050"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1921,7 +1897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="3776980"/>
+          <a:ext cx="11245215" cy="3619500"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1967,7 +1943,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="3776980"/>
+          <a:ext cx="11245215" cy="3619500"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2013,7 +1989,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="6691630"/>
+          <a:ext cx="11245215" cy="6534150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2059,7 +2035,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="8234680"/>
+          <a:ext cx="11245215" cy="8077200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2105,7 +2081,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="8234680"/>
+          <a:ext cx="11245215" cy="8077200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2151,7 +2127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="8234680"/>
+          <a:ext cx="11245215" cy="8077200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2197,7 +2173,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="8234680"/>
+          <a:ext cx="11245215" cy="8077200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2243,7 +2219,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="8234680"/>
+          <a:ext cx="11245215" cy="8077200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2289,7 +2265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="8234680"/>
+          <a:ext cx="11245215" cy="8077200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2335,7 +2311,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="8234680"/>
+          <a:ext cx="11245215" cy="8077200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2381,7 +2357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="8406130"/>
+          <a:ext cx="11245215" cy="8248650"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2427,7 +2403,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="8406130"/>
+          <a:ext cx="11245215" cy="8248650"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2473,7 +2449,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="8406130"/>
+          <a:ext cx="11245215" cy="8248650"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2519,7 +2495,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11245215" cy="8406130"/>
+          <a:ext cx="11245215" cy="8248650"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2565,7 +2541,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9970135" cy="8749030"/>
+          <a:ext cx="9970135" cy="8591550"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2611,7 +2587,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9970135" cy="8749030"/>
+          <a:ext cx="9970135" cy="8591550"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2657,7 +2633,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10988040" cy="9316720"/>
+          <a:ext cx="10988040" cy="9159240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2703,7 +2679,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10988040" cy="9316720"/>
+          <a:ext cx="10988040" cy="9159240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6301,8 +6277,8 @@
   <sheetPr/>
   <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -6401,16 +6377,16 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="18" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
@@ -6474,88 +6450,80 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="25.9" customHeight="1" spans="1:41">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="1" spans="1:35">
+      <c r="A2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="W2" s="6" t="s">
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="W2" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="12" t="s">
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2" t="s">
         <v>60</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AH2" t="s">
         <v>61</v>
       </c>
-      <c r="AI2" s="21" t="s">
+      <c r="AI2" t="s">
         <v>62</v>
       </c>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6711,7 +6679,7 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/excelTemplate/LoadingTemplateCustoms.xlsx
+++ b/excelTemplate/LoadingTemplateCustoms.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>#M B/L No</t>
   </si>
@@ -144,10 +144,10 @@
     <t>&lt;%forRow rs1,i in _data_[0]%&gt;&lt;%=rs1.billlading_no%&gt;</t>
   </si>
   <si>
-    <t>&lt;%="EX"%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%="S"%&gt;</t>
+    <t>&lt;%=rs1.billlading_reference_type%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_bl_type%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.discharge_port_country%&gt;</t>
@@ -300,31 +300,21 @@
     <t>*No Of Package</t>
   </si>
   <si>
-    <t>SIMPLE</t>
-  </si>
-  <si>
-    <t>EX</t>
-  </si>
-  <si>
-    <t>TZDL-18-1247952</t>
-  </si>
-  <si>
-    <t>BALES</t>
-  </si>
-  <si>
-    <t>KG</t>
+    <t>&lt;%=rs1.billlading_hbl_no%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.billlading_reference_no%&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -344,20 +334,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,9 +353,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -387,52 +412,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,7 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,6 +446,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,14 +476,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,7 +497,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,73 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,13 +617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,55 +629,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,16 +701,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,24 +726,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,6 +759,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -787,203 +788,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3875,7 +3833,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="2047875"/>
+          <a:ext cx="12556490" cy="1704975"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3921,7 +3879,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="2047875"/>
+          <a:ext cx="12556490" cy="1704975"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3967,7 +3925,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="2047875"/>
+          <a:ext cx="12556490" cy="1704975"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4013,7 +3971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="3762375"/>
+          <a:ext cx="12556490" cy="3419475"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4059,7 +4017,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="3762375"/>
+          <a:ext cx="12556490" cy="3419475"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4105,7 +4063,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="3933825"/>
+          <a:ext cx="12556490" cy="3590925"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4151,7 +4109,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12556490" cy="3933825"/>
+          <a:ext cx="12556490" cy="3590925"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4197,7 +4155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11045190" cy="3933825"/>
+          <a:ext cx="11045190" cy="3590925"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4243,7 +4201,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11045190" cy="3933825"/>
+          <a:ext cx="11045190" cy="3590925"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4289,7 +4247,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12232640" cy="7618095"/>
+          <a:ext cx="12232640" cy="7275195"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4335,7 +4293,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12232640" cy="7618095"/>
+          <a:ext cx="12232640" cy="7275195"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4795,7 +4753,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="1276350"/>
+          <a:ext cx="11737340" cy="1219200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4841,7 +4799,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="1276350"/>
+          <a:ext cx="11737340" cy="1219200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4887,7 +4845,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="1276350"/>
+          <a:ext cx="11737340" cy="1219200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4933,7 +4891,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="1276350"/>
+          <a:ext cx="11737340" cy="1219200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4979,7 +4937,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="1276350"/>
+          <a:ext cx="11737340" cy="1219200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5025,7 +4983,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="1276350"/>
+          <a:ext cx="11737340" cy="1219200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5071,7 +5029,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="4705350"/>
+          <a:ext cx="11737340" cy="4648200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5117,7 +5075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="4705350"/>
+          <a:ext cx="11737340" cy="4648200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5163,7 +5121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="4705350"/>
+          <a:ext cx="11737340" cy="4648200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5209,7 +5167,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="4705350"/>
+          <a:ext cx="11737340" cy="4648200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5255,7 +5213,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="4705350"/>
+          <a:ext cx="11737340" cy="4648200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5301,7 +5259,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="7277100"/>
+          <a:ext cx="11737340" cy="7219950"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5347,7 +5305,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="8134350"/>
+          <a:ext cx="11737340" cy="8077200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5393,7 +5351,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="8134350"/>
+          <a:ext cx="11737340" cy="8077200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5439,7 +5397,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="8134350"/>
+          <a:ext cx="11737340" cy="8077200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5485,7 +5443,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="8134350"/>
+          <a:ext cx="11737340" cy="8077200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5531,7 +5489,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="8134350"/>
+          <a:ext cx="11737340" cy="8077200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5577,7 +5535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="8134350"/>
+          <a:ext cx="11737340" cy="8077200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5623,7 +5581,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="8134350"/>
+          <a:ext cx="11737340" cy="8077200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5669,7 +5627,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="8305800"/>
+          <a:ext cx="11737340" cy="8248650"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5715,7 +5673,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="8305800"/>
+          <a:ext cx="11737340" cy="8248650"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5761,7 +5719,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="8305800"/>
+          <a:ext cx="11737340" cy="8248650"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5807,7 +5765,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11737340" cy="8305800"/>
+          <a:ext cx="11737340" cy="8248650"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5853,7 +5811,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10308590" cy="8305800"/>
+          <a:ext cx="10308590" cy="8248650"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5899,7 +5857,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10308590" cy="8305800"/>
+          <a:ext cx="10308590" cy="8248650"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5945,7 +5903,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11415395" cy="8999220"/>
+          <a:ext cx="11415395" cy="8942070"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5991,7 +5949,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11415395" cy="8999220"/>
+          <a:ext cx="11415395" cy="8942070"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6277,8 +6235,8 @@
   <sheetPr/>
   <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -6300,10 +6258,10 @@
     <col min="15" max="15" width="19.7083333333333" customWidth="1"/>
     <col min="16" max="16" width="12.2833333333333" customWidth="1"/>
     <col min="17" max="17" width="16.7083333333333" customWidth="1"/>
-    <col min="18" max="18" width="15.1416666666667" style="17" customWidth="1"/>
-    <col min="19" max="19" width="17.7083333333333" style="17" customWidth="1"/>
-    <col min="20" max="20" width="16" style="17" customWidth="1"/>
-    <col min="21" max="21" width="17.7083333333333" style="17" customWidth="1"/>
+    <col min="18" max="18" width="15.1416666666667" style="3" customWidth="1"/>
+    <col min="19" max="19" width="17.7083333333333" style="3" customWidth="1"/>
+    <col min="20" max="20" width="16" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.7083333333333" style="3" customWidth="1"/>
     <col min="22" max="22" width="12.2833333333333" customWidth="1"/>
     <col min="23" max="23" width="15.2833333333333" customWidth="1"/>
     <col min="24" max="24" width="10" customWidth="1"/>
@@ -6326,127 +6284,127 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:41">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6502,19 +6460,16 @@
       <c r="Q2" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
       <c r="W2" t="s">
         <v>58</v>
       </c>
       <c r="AC2" t="s">
         <v>59</v>
       </c>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
       <c r="AG2" t="s">
         <v>60</v>
       </c>
@@ -6539,7 +6494,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -6564,107 +6519,109 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="40.5" spans="1:17">
-      <c r="A2" s="8" t="s">
+    <row r="2" customFormat="1" spans="1:17">
+      <c r="A2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="13:13">
-      <c r="M3" s="15"/>
+      <c r="M3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6680,7 +6637,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -6696,55 +6653,55 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A2" s="3">
-        <v>6163887840</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" customFormat="1" spans="1:8">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2000</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="7">
-        <v>410000</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>98</v>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
